--- a/Chandan_Shalab_TestNG_Data_Driven_Framework/src/main/java/Data_Source/User_Data.xlsx
+++ b/Chandan_Shalab_TestNG_Data_Driven_Framework/src/main/java/Data_Source/User_Data.xlsx
@@ -143,7 +143,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -205,7 +205,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Chandan_Shalab_TestNG_Data_Driven_Framework/src/main/java/Data_Source/User_Data.xlsx
+++ b/Chandan_Shalab_TestNG_Data_Driven_Framework/src/main/java/Data_Source/User_Data.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="User_Creds" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="User_Creds2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">USERNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSWORD</t>
+  </si>
   <si>
     <t xml:space="preserve">Admin</t>
   </si>
@@ -39,6 +45,12 @@
   </si>
   <si>
     <t xml:space="preserve">who123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nulll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
   </si>
 </sst>
 </file>
@@ -49,7 +61,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -71,13 +83,26 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,12 +139,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -132,6 +161,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -140,10 +229,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -152,10 +241,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -177,10 +266,26 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -199,14 +304,68 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
